--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -259,13 +259,17 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -422,10 +426,6 @@
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>XAD.7</t>
   </si>
   <si>
@@ -445,7 +445,7 @@
 Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>Coded value for municipality/county Norwegian kommune</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Address.district.value</t>
@@ -844,10 +847,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1290,13 +1293,13 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>28</v>
@@ -1307,10 +1310,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1321,7 +1324,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1333,13 +1336,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1390,13 +1393,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1408,7 +1411,7 @@
         <v>75</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>75</v>
@@ -1419,14 +1422,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1445,16 +1448,16 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1492,19 +1495,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1516,13 +1519,13 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>75</v>
@@ -1533,16 +1536,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1561,13 +1564,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1618,7 +1621,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1630,7 +1633,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1647,23 +1650,23 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1675,13 +1678,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1732,7 +1735,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1744,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -1761,13 +1764,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>75</v>
@@ -1789,13 +1792,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1846,7 +1849,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1858,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -1875,10 +1878,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1889,31 +1892,31 @@
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -1926,7 +1929,7 @@
         <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>75</v>
@@ -1938,13 +1941,13 @@
         <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>75</v>
@@ -1962,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>132</v>
@@ -2005,7 +2008,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -2014,10 +2017,10 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>136</v>
@@ -2052,7 +2055,7 @@
         <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y9" t="s" s="2">
         <v>140</v>
@@ -2082,13 +2085,13 @@
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>142</v>
@@ -2119,7 +2122,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2128,10 +2131,10 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>145</v>
@@ -2198,13 +2201,13 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>150</v>
@@ -2244,10 +2247,10 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>154</v>
@@ -2316,7 +2319,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>157</v>
@@ -2347,7 +2350,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2356,10 +2359,10 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>163</v>
@@ -2422,13 +2425,13 @@
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>166</v>
@@ -2459,7 +2462,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2468,10 +2471,10 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>172</v>
@@ -2536,13 +2539,13 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>176</v>
@@ -2573,7 +2576,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2585,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>179</v>
@@ -2642,13 +2645,13 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
@@ -2697,7 +2700,7 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>182</v>
@@ -2742,17 +2745,17 @@
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2764,7 +2767,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2797,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2866,7 +2869,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2878,13 +2881,13 @@
         <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -2895,10 +2898,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2909,7 +2912,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2921,13 +2924,13 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2951,7 +2954,7 @@
         <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>75</v>
@@ -2978,13 +2981,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3007,21 +3010,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3030,16 +3033,16 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3090,50 +3093,50 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3142,16 +3145,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3166,7 +3169,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>75</v>
@@ -3202,39 +3205,39 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3245,7 +3248,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3254,19 +3257,19 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3316,39 +3319,39 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3359,7 +3362,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3368,20 +3371,20 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3394,7 +3397,7 @@
         <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>75</v>
@@ -3430,28 +3433,28 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>75</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -259,7 +259,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -445,7 +445,7 @@
 Mapping of values to other Norwegian CodeSystems is documented in the implementation guide. In general the address used for visiting the person should have use "home" and type "physical" or "both". The "official" flag can be either true or false.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -1031,45 +1031,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="15.3671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="13.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="59.8515625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="51.3125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.51171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="34.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.3046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.2578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="27.0546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.56640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="23.1953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1552,7 +1552,7 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Address.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -345,7 +345,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-address-official}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-address-official}
 </t>
   </si>
   <si>
@@ -365,7 +365,7 @@
 urban district</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-urban-district}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-urban-district}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>propertyInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-propertyinformation}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-propertyinformation}
 </t>
   </si>
   <si>
@@ -593,7 +593,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
